--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D-20\github desktop\excel_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C443557F-B478-4CCF-87C2-8D7188844162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7A62DD-761E-48A0-B899-02E7C9FE80AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,10 +110,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,13 +411,13 @@
       <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" t="s">
         <v>3</v>
       </c>
@@ -430,7 +430,7 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K10" t="s">
@@ -445,7 +445,7 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K12" t="s">
@@ -481,11 +481,11 @@
       </c>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="K18" t="s">
         <v>12</v>
       </c>
